--- a/3Курс/Зайцев/ММПР/Зайцев_Н_Семинар1.xlsx
+++ b/3Курс/Зайцев/ММПР/Зайцев_Н_Семинар1.xlsx
@@ -8,16 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitazaytsev/Desktop/Мат Методы Принятия/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4042F0-2FBE-F14F-A6A6-4E355BBC6D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157AAC32-4079-1147-9F55-ACE500AD8DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{38F875DA-91D1-0E48-B710-3082658ACFCC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{38F875DA-91D1-0E48-B710-3082658ACFCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Сладости" sheetId="1" r:id="rId1"/>
     <sheet name="Овощи" sheetId="2" r:id="rId2"/>
     <sheet name="КомпМагазин" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">КомпМагазин!$M$3:$M$6</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">КомпМагазин!$B$11:$H$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">КомпМагазин!$M$3:$M$6</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">КомпМагазин!$F$14</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">КомпМагазин!$B$10:$H$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">"целое"</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -255,13 +289,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -270,21 +301,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -638,20 +670,20 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>15</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>5</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>30</v>
       </c>
     </row>
@@ -659,20 +691,20 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>10</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>40</v>
       </c>
     </row>
@@ -680,20 +712,20 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>20</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
@@ -705,20 +737,20 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>20</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -744,19 +776,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>30000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>60000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>15000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>25000</v>
       </c>
       <c r="F7" s="2"/>
@@ -769,13 +801,13 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="J8" s="1" t="s">
@@ -786,7 +818,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1">
@@ -810,11 +842,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9">
+      <c r="C10" s="11"/>
+      <c r="D10" s="7">
         <f>SUMPRODUCT(G2:G5,K5:K8)</f>
         <v>127670</v>
       </c>
@@ -866,16 +898,16 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>35</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>80</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>60</v>
       </c>
       <c r="H2" s="1">
@@ -886,16 +918,16 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>20</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>4</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>60</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>20</v>
       </c>
       <c r="H3" s="1">
@@ -906,16 +938,16 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>70</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>40</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>55</v>
       </c>
       <c r="H4" s="1">
@@ -926,16 +958,16 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>50</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>30</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>120</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>60</v>
       </c>
       <c r="H5" s="1">
@@ -943,7 +975,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F7">
@@ -952,7 +984,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E8" s="3"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -998,7 +1030,7 @@
   <dimension ref="A2:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,29 +1067,29 @@
       <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1065,25 +1097,25 @@
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>8</v>
       </c>
       <c r="I3" s="1">
@@ -1098,7 +1130,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>31</v>
@@ -1114,25 +1146,25 @@
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>12</v>
       </c>
       <c r="I4" s="1">
@@ -1147,7 +1179,7 @@
         <v>49</v>
       </c>
       <c r="M4" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>32</v>
@@ -1163,29 +1195,29 @@
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>25</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>25</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>5</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>25</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I4:I6" si="1">SUMPRODUCT(B5:H5,$B$8:$H$8)</f>
+        <f t="shared" ref="I5:I6" si="1">SUMPRODUCT(B5:H5,$B$8:$H$8)</f>
         <v>636</v>
       </c>
       <c r="J5" s="1">
@@ -1196,7 +1228,7 @@
         <v>164</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>33</v>
@@ -1212,25 +1244,25 @@
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>30</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>30</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>25</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>50</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>10</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>12</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>30</v>
       </c>
       <c r="I6" s="1">
@@ -1245,7 +1277,7 @@
         <v>1353</v>
       </c>
       <c r="M6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>34</v>
@@ -1272,41 +1304,41 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>Q3</f>
         <v>15</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <f>Q4</f>
         <v>35</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f>Q5</f>
         <v>5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f>Q6</f>
         <v>8</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f>Q7</f>
         <v>2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f>Q8</f>
         <v>6</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f>Q9</f>
         <v>1</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="1">
         <v>400</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1325,31 +1357,31 @@
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>P3</f>
         <v>200</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f>P4</f>
         <v>500</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>P5</f>
         <v>250</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>P6</f>
         <v>400</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>P7</f>
         <v>300</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f>P8</f>
         <v>400</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f>P9</f>
         <v>800</v>
       </c>
@@ -1360,49 +1392,49 @@
       </c>
       <c r="B11" s="1">
         <f>SUMPRODUCT(B3:B6,$M$3:$M$6)</f>
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1">
-        <f>SUMPRODUCT(C3:C6,$M$3:$M$6)</f>
-        <v>190</v>
+        <f t="shared" ref="B11:H11" si="2">SUMPRODUCT(C3:C6,$M$3:$M$6)</f>
+        <v>199</v>
       </c>
       <c r="D11" s="1">
-        <f>SUMPRODUCT(D3:D6,$M$3:$M$6)</f>
-        <v>205</v>
+        <f t="shared" si="2"/>
+        <v>191</v>
       </c>
       <c r="E11" s="1">
-        <f>SUMPRODUCT(E3:E6,$M$3:$M$6)</f>
-        <v>380</v>
+        <f t="shared" si="2"/>
+        <v>396</v>
       </c>
       <c r="F11" s="1">
-        <f>SUMPRODUCT(F3:F6,$M$3:$M$6)</f>
-        <v>98</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="G11" s="1">
-        <f>SUMPRODUCT(G3:G6,$M$3:$M$6)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>91</v>
       </c>
       <c r="H11" s="1">
-        <f>SUMPRODUCT(H3:H6,$M$3:$M$6)</f>
-        <v>495</v>
+        <f t="shared" si="2"/>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="1">
         <f>SUMPRODUCT(K3:K6,M3:M6)</f>
-        <v>7944</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="1">
         <f>F14/1000</f>
-        <v>7.944</v>
+        <v>8.8249999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1414,28 +1446,27 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
